--- a/data/fuentes_cv.xlsx
+++ b/data/fuentes_cv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajcestudioses-my.sharepoint.com/personal/info_ajcestudios_es/Documents/057_Autovia Olivar/4. Documentacion presentada/HTML/CANTERAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{D6908D60-4C24-4A1F-BC21-C7E31F4DE55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E929720-13EC-455B-850D-6C0F36BF960E}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="8_{D6908D60-4C24-4A1F-BC21-C7E31F4DE55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D3B4DF-725B-4995-A682-E183D44D90B1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C750FF54-24AE-4B02-979E-48BE962E1C44}"/>
   </bookViews>
@@ -231,235 +231,235 @@
     <t>-3.9658</t>
   </si>
   <si>
-    <t>37.734456</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.947783</t>
-  </si>
-  <si>
-    <t>37.747650</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.893556</t>
-  </si>
-  <si>
-    <t>37.602325</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.091564</t>
-  </si>
-  <si>
-    <t>37.663961</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.916397</t>
-  </si>
-  <si>
-    <t>37.648628</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.936267</t>
-  </si>
-  <si>
-    <t>37.812422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.832503</t>
-  </si>
-  <si>
-    <t>38.074858</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.860792</t>
-  </si>
-  <si>
-    <t>37.631664</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.608097</t>
-  </si>
-  <si>
-    <t>37.779856</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.887997</t>
-  </si>
-  <si>
-    <t>37.701558</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.999842</t>
-  </si>
-  <si>
-    <t>37.578858</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.082947</t>
-  </si>
-  <si>
-    <t>37.624942</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.310283</t>
-  </si>
-  <si>
-    <t>37.481906</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.480250</t>
-  </si>
-  <si>
-    <t>37.424150</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.606656</t>
-  </si>
-  <si>
-    <t>37.836711</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.831869</t>
-  </si>
-  <si>
-    <t>37.735497</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.919883</t>
-  </si>
-  <si>
-    <t>37.744064</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.860061</t>
-  </si>
-  <si>
-    <t>37.806983</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.814594</t>
-  </si>
-  <si>
-    <t>37.780050</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.834914</t>
-  </si>
-  <si>
-    <t>37.735211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.920478</t>
-  </si>
-  <si>
-    <t>37.666619</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.994911</t>
-  </si>
-  <si>
-    <t>37.658458</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.997197</t>
-  </si>
-  <si>
-    <t>37.651511</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.013825</t>
-  </si>
-  <si>
-    <t>37.644383</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.007869</t>
-  </si>
-  <si>
-    <t>37.638192</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.999408</t>
-  </si>
-  <si>
-    <t>37.636714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.007489</t>
-  </si>
-  <si>
-    <t>37.620592</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.994078</t>
-  </si>
-  <si>
-    <t>37.600456</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.959933</t>
-  </si>
-  <si>
-    <t>37.589064</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.947839</t>
-  </si>
-  <si>
-    <t>37.586419</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.944367</t>
-  </si>
-  <si>
-    <t>37.582653</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.945456</t>
-  </si>
-  <si>
-    <t>37.575267</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.947869</t>
-  </si>
-  <si>
-    <t>37.570044</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.947067</t>
-  </si>
-  <si>
-    <t>37.572306</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.957819</t>
-  </si>
-  <si>
-    <t>37.567344</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.956075</t>
-  </si>
-  <si>
-    <t>37.518642</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.924019</t>
-  </si>
-  <si>
-    <t>37.517036</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.921100</t>
-  </si>
-  <si>
-    <t>37.449928</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.965911</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>37.7344</t>
+  </si>
+  <si>
+    <t>37.734</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9477</t>
+  </si>
+  <si>
+    <t>37.7476</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.8935</t>
+  </si>
+  <si>
+    <t>37.6023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.0915</t>
+  </si>
+  <si>
+    <t>37.6639</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9163</t>
+  </si>
+  <si>
+    <t>37.6486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9362</t>
+  </si>
+  <si>
+    <t>37.8124</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.8325</t>
+  </si>
+  <si>
+    <t>38.0748</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.8607</t>
+  </si>
+  <si>
+    <t>37.6316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.6080</t>
+  </si>
+  <si>
+    <t>37.7798</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.8879</t>
+  </si>
+  <si>
+    <t>37.7015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9998</t>
+  </si>
+  <si>
+    <t>37.5788</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.0829</t>
+  </si>
+  <si>
+    <t>37.6249</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.3102</t>
+  </si>
+  <si>
+    <t>37.4819</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.4802</t>
+  </si>
+  <si>
+    <t>37.4241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.6066</t>
+  </si>
+  <si>
+    <t>37.8367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.8318</t>
+  </si>
+  <si>
+    <t>37.7354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9198</t>
+  </si>
+  <si>
+    <t>37.7440</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.8600</t>
+  </si>
+  <si>
+    <t>37.8069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.8145</t>
+  </si>
+  <si>
+    <t>37.7800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.8349</t>
+  </si>
+  <si>
+    <t>37.7352</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9204</t>
+  </si>
+  <si>
+    <t>37.6666</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9949</t>
+  </si>
+  <si>
+    <t>37.6584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9971</t>
+  </si>
+  <si>
+    <t>37.6515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.0138</t>
+  </si>
+  <si>
+    <t>37.6443</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.0078</t>
+  </si>
+  <si>
+    <t>37.6381</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9994</t>
+  </si>
+  <si>
+    <t>37.6367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.0074</t>
+  </si>
+  <si>
+    <t>37.6205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9940</t>
+  </si>
+  <si>
+    <t>37.6004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9599</t>
+  </si>
+  <si>
+    <t>37.5890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9478</t>
+  </si>
+  <si>
+    <t>37.5864</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9443</t>
+  </si>
+  <si>
+    <t>37.5826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9454</t>
+  </si>
+  <si>
+    <t>37.5752</t>
+  </si>
+  <si>
+    <t>37.5700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9470</t>
+  </si>
+  <si>
+    <t>37.5723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9578</t>
+  </si>
+  <si>
+    <t>37.5673</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9560</t>
+  </si>
+  <si>
+    <t>37.5186</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9240</t>
+  </si>
+  <si>
+    <t>37.5170</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9211</t>
+  </si>
+  <si>
+    <t>37.4499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9659</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,6 +636,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -981,19 +984,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F43E5-6649-4792-9796-808275AA6004}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
@@ -1008,10 +1011,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1025,10 +1028,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1042,10 +1045,10 @@
         <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1059,10 +1062,10 @@
         <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1076,13 +1079,13 @@
         <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1093,10 +1096,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1110,10 +1113,10 @@
         <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1127,10 +1130,10 @@
         <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1144,10 +1147,10 @@
         <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1158,13 +1161,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1175,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1192,13 +1195,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1209,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1226,16 +1229,16 @@
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
@@ -1243,13 +1246,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1260,16 +1263,16 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
@@ -1277,16 +1280,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
@@ -1294,16 +1297,16 @@
         <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>48</v>
       </c>
@@ -1311,16 +1314,16 @@
         <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>48</v>
       </c>
@@ -1328,16 +1331,16 @@
         <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
@@ -1345,16 +1348,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>48</v>
       </c>
@@ -1362,16 +1365,16 @@
         <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
@@ -1379,16 +1382,16 @@
         <v>45</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>48</v>
       </c>
@@ -1396,16 +1399,16 @@
         <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>39</v>
       </c>
@@ -1413,16 +1416,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>39</v>
       </c>
@@ -1430,17 +1433,16 @@
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
@@ -1448,17 +1450,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>39</v>
       </c>
@@ -1466,17 +1467,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>39</v>
       </c>
@@ -1484,17 +1484,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -1502,17 +1501,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
@@ -1520,17 +1518,16 @@
         <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
@@ -1538,17 +1535,16 @@
         <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
@@ -1556,17 +1552,16 @@
         <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>39</v>
       </c>
@@ -1574,17 +1569,16 @@
         <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
@@ -1592,16 +1586,16 @@
         <v>32</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
@@ -1609,16 +1603,16 @@
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>39</v>
       </c>
@@ -1626,16 +1620,16 @@
         <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>39</v>
       </c>
@@ -1643,16 +1637,16 @@
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>39</v>
       </c>
@@ -1660,16 +1654,16 @@
         <v>36</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>39</v>
       </c>
@@ -1677,16 +1671,16 @@
         <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
@@ -1694,13 +1688,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1715,14 +1709,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/fuentes_cv.xlsx
+++ b/data/fuentes_cv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajcestudioses-my.sharepoint.com/personal/info_ajcestudios_es/Documents/057_Autovia Olivar/4. Documentacion presentada/HTML/CANTERAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="8_{D6908D60-4C24-4A1F-BC21-C7E31F4DE55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D3B4DF-725B-4995-A682-E183D44D90B1}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{D6908D60-4C24-4A1F-BC21-C7E31F4DE55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E082A3D-9E9E-4455-90EC-5516260F9ACD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C750FF54-24AE-4B02-979E-48BE962E1C44}"/>
   </bookViews>
@@ -234,232 +234,232 @@
     <t>-</t>
   </si>
   <si>
-    <t>37.7344</t>
-  </si>
-  <si>
-    <t>37.734</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9477</t>
-  </si>
-  <si>
-    <t>37.7476</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.8935</t>
-  </si>
-  <si>
-    <t>37.6023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.0915</t>
-  </si>
-  <si>
-    <t>37.6639</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9163</t>
-  </si>
-  <si>
-    <t>37.6486</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9362</t>
-  </si>
-  <si>
-    <t>37.8124</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.8325</t>
-  </si>
-  <si>
-    <t>38.0748</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.8607</t>
-  </si>
-  <si>
-    <t>37.6316</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.6080</t>
-  </si>
-  <si>
-    <t>37.7798</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.8879</t>
-  </si>
-  <si>
-    <t>37.7015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9998</t>
-  </si>
-  <si>
-    <t>37.5788</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.0829</t>
-  </si>
-  <si>
-    <t>37.6249</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.3102</t>
-  </si>
-  <si>
-    <t>37.4819</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.4802</t>
-  </si>
-  <si>
-    <t>37.4241</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.6066</t>
-  </si>
-  <si>
-    <t>37.8367</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.8318</t>
-  </si>
-  <si>
-    <t>37.7354</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9198</t>
-  </si>
-  <si>
-    <t>37.7440</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.8600</t>
-  </si>
-  <si>
-    <t>37.8069</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.8145</t>
-  </si>
-  <si>
-    <t>37.7800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.8349</t>
-  </si>
-  <si>
-    <t>37.7352</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9204</t>
-  </si>
-  <si>
-    <t>37.6666</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9949</t>
-  </si>
-  <si>
-    <t>37.6584</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9971</t>
-  </si>
-  <si>
-    <t>37.6515</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.0138</t>
-  </si>
-  <si>
-    <t>37.6443</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.0078</t>
-  </si>
-  <si>
-    <t>37.6381</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9994</t>
-  </si>
-  <si>
-    <t>37.6367</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.0074</t>
-  </si>
-  <si>
-    <t>37.6205</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9940</t>
-  </si>
-  <si>
-    <t>37.6004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9599</t>
-  </si>
-  <si>
-    <t>37.5890</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9478</t>
-  </si>
-  <si>
-    <t>37.5864</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9443</t>
-  </si>
-  <si>
-    <t>37.5826</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9454</t>
-  </si>
-  <si>
-    <t>37.5752</t>
-  </si>
-  <si>
-    <t>37.5700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9470</t>
-  </si>
-  <si>
-    <t>37.5723</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9578</t>
-  </si>
-  <si>
-    <t>37.5673</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9560</t>
-  </si>
-  <si>
-    <t>37.5186</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9240</t>
-  </si>
-  <si>
-    <t>37.5170</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9211</t>
-  </si>
-  <si>
-    <t>37.4499</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.9659</t>
+    <t>37.7340</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.94770</t>
+  </si>
+  <si>
+    <t>37.74760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.89350</t>
+  </si>
+  <si>
+    <t>37.60230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.09150</t>
+  </si>
+  <si>
+    <t>37.66390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.91630</t>
+  </si>
+  <si>
+    <t>37.64860</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.93620</t>
+  </si>
+  <si>
+    <t>37.81240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.83250</t>
+  </si>
+  <si>
+    <t>38.07480</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.86070</t>
+  </si>
+  <si>
+    <t>37.63160</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.60800</t>
+  </si>
+  <si>
+    <t>37.73440</t>
+  </si>
+  <si>
+    <t>37.77980</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.88790</t>
+  </si>
+  <si>
+    <t>37.70150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.99980</t>
+  </si>
+  <si>
+    <t>37.57880</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.08290</t>
+  </si>
+  <si>
+    <t>37.62490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.31020</t>
+  </si>
+  <si>
+    <t>37.48190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.48020</t>
+  </si>
+  <si>
+    <t>37.42410</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.60660</t>
+  </si>
+  <si>
+    <t>37.83670</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.83180</t>
+  </si>
+  <si>
+    <t>37.73540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.91980</t>
+  </si>
+  <si>
+    <t>37.74400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.86000</t>
+  </si>
+  <si>
+    <t>37.80690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.81450</t>
+  </si>
+  <si>
+    <t>37.78000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.83490</t>
+  </si>
+  <si>
+    <t>37.73520</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.92040</t>
+  </si>
+  <si>
+    <t>37.66660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.99490</t>
+  </si>
+  <si>
+    <t>37.65840</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.99710</t>
+  </si>
+  <si>
+    <t>37.65150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.01380</t>
+  </si>
+  <si>
+    <t>37.64430</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.00780</t>
+  </si>
+  <si>
+    <t>37.63810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.99940</t>
+  </si>
+  <si>
+    <t>37.63670</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.00740</t>
+  </si>
+  <si>
+    <t>37.62050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.99400</t>
+  </si>
+  <si>
+    <t>37.60040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.95990</t>
+  </si>
+  <si>
+    <t>37.58900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.94780</t>
+  </si>
+  <si>
+    <t>37.58640</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.94430</t>
+  </si>
+  <si>
+    <t>37.58260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.94540</t>
+  </si>
+  <si>
+    <t>37.57520</t>
+  </si>
+  <si>
+    <t>37.57000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.94700</t>
+  </si>
+  <si>
+    <t>37.57230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.95780</t>
+  </si>
+  <si>
+    <t>37.56730</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.95600</t>
+  </si>
+  <si>
+    <t>37.51860</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.92400</t>
+  </si>
+  <si>
+    <t>37.51700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.92110</t>
+  </si>
+  <si>
+    <t>37.44990</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.96590</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F43E5-6649-4792-9796-808275AA6004}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -1011,10 +1011,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
         <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
